--- a/2025-26-rover-circuit/MCU_IO_for_drawings.xlsx
+++ b/2025-26-rover-circuit/MCU_IO_for_drawings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweso\Documents\GitHub\Rover-Main-Circuit\2025-26-rover-circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF963C84-BCEA-4608-9457-3F78DD35BBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3DA723-5E45-49A4-A712-7CEB1FF21D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D3CEBDA5-93A9-4CD3-8C43-A2C5FDD9AEFD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>MCU signals</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>converter out VOLT</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i9</t>
   </si>
 </sst>
 </file>
@@ -164,12 +170,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +512,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,11 +521,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -637,6 +640,12 @@
       <c r="B10" t="s">
         <v>24</v>
       </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -644,6 +653,12 @@
       </c>
       <c r="B11" t="s">
         <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
